--- a/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>KTHN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,91 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E8" s="3">
         <v>8900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E18" s="3">
         <v>7000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6800</v>
       </c>
       <c r="H18" s="3">
         <v>6800</v>
       </c>
       <c r="I18" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="J18" s="3">
         <v>6700</v>
       </c>
       <c r="K18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="L18" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,37 +1042,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-4400</v>
       </c>
       <c r="J20" s="3">
         <v>-4400</v>
       </c>
       <c r="K20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1136,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1105,57 +1148,63 @@
         <v>3100</v>
       </c>
       <c r="E23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2300</v>
       </c>
       <c r="J23" s="3">
         <v>2300</v>
       </c>
       <c r="K23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>500</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
       </c>
       <c r="J24" s="3">
+        <v>500</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1192,28 +1244,31 @@
         <v>2500</v>
       </c>
       <c r="E26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1900</v>
       </c>
       <c r="K26" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1221,28 +1276,31 @@
         <v>2500</v>
       </c>
       <c r="E27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1700</v>
       </c>
       <c r="K27" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,37 +1424,43 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>4400</v>
       </c>
       <c r="J32" s="3">
         <v>4400</v>
       </c>
       <c r="K32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1395,28 +1468,31 @@
         <v>2500</v>
       </c>
       <c r="E33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1700</v>
       </c>
       <c r="K33" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1453,62 +1532,68 @@
         <v>2500</v>
       </c>
       <c r="E35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1700</v>
       </c>
       <c r="K35" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E41" s="3">
         <v>29800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1573,26 +1663,29 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>14400</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>14800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,37 +1841,43 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>10200</v>
       </c>
       <c r="G48" s="3">
         <v>10200</v>
       </c>
       <c r="H48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I48" s="3">
         <v>10300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>10600</v>
       </c>
       <c r="K48" s="3">
         <v>10600</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1776,26 +1887,29 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>5600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>5600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>939200</v>
+      </c>
+      <c r="E54" s="3">
         <v>981800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>903700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>850900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>845200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>838200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>800100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>803100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>792400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +2157,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2034,26 +2171,29 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>8400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>8600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,37 +2221,43 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E61" s="3">
         <v>26000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>60500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>56900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>66400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>866200</v>
+      </c>
+      <c r="E66" s="3">
         <v>910800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>835200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>782000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>778100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>762500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>727200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>732100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>723900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2344,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>10000</v>
@@ -2353,10 +2521,13 @@
         <v>10000</v>
       </c>
       <c r="K70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L70" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E72" s="3">
         <v>70600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>68600</v>
       </c>
-      <c r="F72" s="3">
-        <v>128300</v>
-      </c>
       <c r="G72" s="3">
+        <v>60000</v>
+      </c>
+      <c r="H72" s="3">
         <v>66700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>65400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>63900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E76" s="3">
         <v>70900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>68500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>68900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>67100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>65600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>62900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>61100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2601,28 +2796,31 @@
         <v>2500</v>
       </c>
       <c r="E81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1700</v>
       </c>
       <c r="K81" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>KTHN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F8" s="3">
         <v>8700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>8900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>9000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>9400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>9200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>8600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,8 +793,14 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +923,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +961,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2600</v>
       </c>
       <c r="I17" s="3">
         <v>2400</v>
       </c>
       <c r="J17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F18" s="3">
         <v>7200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>6200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>6700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>6800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,40 +1108,48 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1180,14 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1218,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>400</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F27" s="3">
         <v>2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2300</v>
       </c>
       <c r="I27" s="3">
         <v>1900</v>
       </c>
       <c r="J27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1560,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F32" s="3">
         <v>4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F33" s="3">
         <v>2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2300</v>
       </c>
       <c r="I33" s="3">
         <v>1900</v>
       </c>
       <c r="J33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F35" s="3">
         <v>2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2300</v>
       </c>
       <c r="I35" s="3">
         <v>1900</v>
       </c>
       <c r="J35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,72 +1791,86 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F41" s="3">
         <v>28400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>29800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>29400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>22100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
+      <c r="E42" s="3">
+        <v>52300</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>14400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>14800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1901,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1939,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1977,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,8 +2015,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,72 +2053,90 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F48" s="3">
         <v>10000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>10200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>10300</v>
       </c>
       <c r="G48" s="3">
         <v>10200</v>
       </c>
       <c r="H48" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I48" s="3">
         <v>10200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K48" s="3">
         <v>10300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>5600</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>5600</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>5600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2205,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2243,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>941400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>937000</v>
+      </c>
+      <c r="F54" s="3">
         <v>939200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>981800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>903700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>850900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>845200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>838200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>800100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>803100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>792400</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2355,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,8 +2389,14 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,40 +2427,52 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+      <c r="E59" s="3">
+        <v>17400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>8400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>8600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2224,40 +2503,52 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F61" s="3">
         <v>16000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>26000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>60500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>21200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>38400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>56900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>66400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2579,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>862600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>860800</v>
+      </c>
+      <c r="F66" s="3">
         <v>866200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>910800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>835200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>782000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>778100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>762500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>727200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>732100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>723900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2515,19 +2850,25 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>10000</v>
       </c>
       <c r="L70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N70" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F72" s="3">
         <v>72900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>70600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>68600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>60000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>66700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>65400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>63900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>53900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>76200</v>
+      </c>
+      <c r="F76" s="3">
         <v>73000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>70900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>68500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>68900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>67100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>65600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>62900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>61100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F81" s="3">
         <v>2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2300</v>
       </c>
       <c r="I81" s="3">
         <v>1900</v>
       </c>
       <c r="J81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3228,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3262,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3452,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3057,8 +3490,14 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3510,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3544,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3620,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3658,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3826,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3373,8 +3864,14 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3902,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3938,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>KTHN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E8" s="3">
         <v>8500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E17" s="3">
         <v>7000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1500</v>
       </c>
       <c r="F17" s="3">
         <v>1500</v>
       </c>
       <c r="G17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>6800</v>
       </c>
       <c r="K18" s="3">
         <v>6800</v>
       </c>
       <c r="L18" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="M18" s="3">
         <v>6700</v>
       </c>
       <c r="N18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="O18" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,46 +1143,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-4400</v>
       </c>
       <c r="M20" s="3">
         <v>-4400</v>
       </c>
       <c r="N20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3100</v>
       </c>
       <c r="G23" s="3">
         <v>3100</v>
       </c>
       <c r="H23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2300</v>
       </c>
       <c r="M23" s="3">
         <v>2300</v>
       </c>
       <c r="N23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>500</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
       </c>
       <c r="M24" s="3">
+        <v>500</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2500</v>
       </c>
       <c r="G26" s="3">
         <v>2500</v>
       </c>
       <c r="H26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1900</v>
       </c>
       <c r="N26" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2500</v>
       </c>
       <c r="G27" s="3">
         <v>2500</v>
       </c>
       <c r="H27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1700</v>
       </c>
       <c r="N27" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>4400</v>
       </c>
       <c r="M32" s="3">
         <v>4400</v>
       </c>
       <c r="N32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2500</v>
       </c>
       <c r="G33" s="3">
         <v>2500</v>
       </c>
       <c r="H33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1700</v>
       </c>
       <c r="N33" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2500</v>
       </c>
       <c r="G35" s="3">
         <v>2500</v>
       </c>
       <c r="H35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1700</v>
       </c>
       <c r="N35" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,84 +1879,91 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E41" s="3">
         <v>25100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>52300</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>14400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>14800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1983,8 +2082,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,84 +2164,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E48" s="3">
         <v>11800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>10200</v>
       </c>
       <c r="J48" s="3">
         <v>10200</v>
       </c>
       <c r="K48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="L48" s="3">
         <v>10300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>10600</v>
       </c>
       <c r="N48" s="3">
         <v>10600</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>5600</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>5600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>5600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>948000</v>
+      </c>
+      <c r="E54" s="3">
         <v>941400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>937000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>939200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>981800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>903700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>850900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>845200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>838200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>803100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>792400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,46 +2567,52 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>17400</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>8400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>8600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2509,46 +2649,52 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E61" s="3">
         <v>11000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>26000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>60500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>56900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>66400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>868000</v>
+      </c>
+      <c r="E66" s="3">
         <v>862600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>860800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>866200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>910800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>835200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>782000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>778100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>762500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>727200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>732100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>723900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2856,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>10000</v>
@@ -2865,10 +3033,13 @@
         <v>10000</v>
       </c>
       <c r="N70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O70" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E72" s="3">
         <v>77800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>68000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>72900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>70600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>68600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>60000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>66700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>65400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>63900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E76" s="3">
         <v>78800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>76200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>73000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>70900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>68500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>68900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>67100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>65600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>62900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>61100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>2500</v>
       </c>
       <c r="G81" s="3">
         <v>2500</v>
       </c>
       <c r="H81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1700</v>
       </c>
       <c r="N81" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>KTHN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,118 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E8" s="3">
         <v>8700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E17" s="3">
         <v>6800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1500</v>
       </c>
       <c r="G17" s="3">
         <v>1500</v>
       </c>
       <c r="H17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>6800</v>
       </c>
       <c r="L18" s="3">
         <v>6800</v>
       </c>
       <c r="M18" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="N18" s="3">
         <v>6700</v>
       </c>
       <c r="O18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="P18" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,49 +1177,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-4400</v>
       </c>
       <c r="N20" s="3">
         <v>-4400</v>
       </c>
       <c r="O20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="P20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1307,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3100</v>
       </c>
       <c r="H23" s="3">
         <v>3100</v>
       </c>
       <c r="I23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2300</v>
       </c>
       <c r="N23" s="3">
         <v>2300</v>
       </c>
       <c r="O23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P23" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,40 +1363,43 @@
         <v>600</v>
       </c>
       <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>500</v>
       </c>
       <c r="M24" s="3">
         <v>500</v>
       </c>
       <c r="N24" s="3">
+        <v>500</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2500</v>
       </c>
       <c r="H26" s="3">
         <v>2500</v>
       </c>
       <c r="I26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1900</v>
       </c>
       <c r="O26" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2500</v>
       </c>
       <c r="H27" s="3">
         <v>2500</v>
       </c>
       <c r="I27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1700</v>
       </c>
       <c r="O27" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>4400</v>
       </c>
       <c r="N32" s="3">
         <v>4400</v>
       </c>
       <c r="O32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2500</v>
       </c>
       <c r="H33" s="3">
         <v>2500</v>
       </c>
       <c r="I33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1700</v>
       </c>
       <c r="O33" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2500</v>
       </c>
       <c r="H35" s="3">
         <v>2500</v>
       </c>
       <c r="I35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1700</v>
       </c>
       <c r="O35" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E41" s="3">
         <v>30300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1932,38 +2022,41 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>52300</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>14400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>14800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2085,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,49 +2272,55 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E48" s="3">
         <v>11600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>10200</v>
       </c>
       <c r="K48" s="3">
         <v>10200</v>
       </c>
       <c r="L48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="M48" s="3">
         <v>10300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>10600</v>
       </c>
       <c r="O48" s="3">
         <v>10600</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2219,38 +2330,41 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>5600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>5600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>5600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>945500</v>
+      </c>
+      <c r="E54" s="3">
         <v>948000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>941400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>937000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>939200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>981800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>903700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>850900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>845200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>838200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>803100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>792400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,8 +2704,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2581,38 +2718,41 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>17400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>8400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>8600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2652,49 +2792,55 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E61" s="3">
         <v>8500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>26000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>60500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>56900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>66400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>863100</v>
+      </c>
+      <c r="E66" s="3">
         <v>868000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>862600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>860800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>866200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>910800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>835200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>782000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>778100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>762500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>727200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>732100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>723900</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3027,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>10000</v>
@@ -3036,10 +3204,13 @@
         <v>10000</v>
       </c>
       <c r="O70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="P70" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E72" s="3">
         <v>79600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>77800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>68000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>72900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>70600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>68600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>60000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>66700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>65400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>63900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E76" s="3">
         <v>80000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>78800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>76200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>73000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>70900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>68500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>68900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>67100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>65600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>62900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>61100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>2500</v>
       </c>
       <c r="H81" s="3">
         <v>2500</v>
       </c>
       <c r="I81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1700</v>
       </c>
       <c r="O81" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>KTHN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F8" s="3">
         <v>8900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>8700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>8500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>8700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>8900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>6900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2600</v>
       </c>
       <c r="M17" s="3">
         <v>2400</v>
       </c>
       <c r="N17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>8400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>7200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>6800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>6700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1243,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>400</v>
       </c>
       <c r="P24" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>400</v>
+      </c>
+      <c r="R24" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2300</v>
       </c>
       <c r="M27" s="3">
         <v>1900</v>
       </c>
       <c r="N27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>2300</v>
       </c>
       <c r="M33" s="3">
         <v>1900</v>
       </c>
       <c r="N33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2300</v>
       </c>
       <c r="M35" s="3">
         <v>1900</v>
       </c>
       <c r="N35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2138,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F41" s="3">
         <v>52500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>30300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>25100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>28400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>29800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>29400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>22100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>13800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>12100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
+      <c r="E42" s="3">
+        <v>57000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>52300</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>14400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>14800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2484,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F48" s="3">
         <v>11500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>11600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>11800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>9900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>10000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>10200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>10300</v>
       </c>
       <c r="K48" s="3">
         <v>10200</v>
       </c>
       <c r="L48" s="3">
+        <v>10300</v>
+      </c>
+      <c r="M48" s="3">
         <v>10200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="O48" s="3">
         <v>10300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>10400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>10600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>5600</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>5600</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>5600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>5600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>963000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>940500</v>
+      </c>
+      <c r="F54" s="3">
         <v>945500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>948000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>941400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>937000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>939200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>981800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>903700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>850900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>845200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>838200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>800100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>803100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>792400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2974,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+      <c r="E59" s="3">
+        <v>13800</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>17400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>8400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>8600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,52 +3074,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F61" s="3">
         <v>6500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>8500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>11000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>21300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>16000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>26000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>60500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>21200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>38400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>56900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>66400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>7200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>882600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>856900</v>
+      </c>
+      <c r="F66" s="3">
         <v>863100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>868000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>862600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>860800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>866200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>910800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>835200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>782000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>778100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>762500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>727200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>732100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>723900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3198,19 +3533,25 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>10000</v>
       </c>
       <c r="P70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R70" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F72" s="3">
         <v>81800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>79600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>77800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>68000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>72900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>70600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>68600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>60000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>66700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>65400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>63900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>53900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>83600</v>
+      </c>
+      <c r="F76" s="3">
         <v>82300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>80000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>78800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>76200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>73000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>70900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>68500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>68900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>67100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>65600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>62900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>61100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>2300</v>
       </c>
       <c r="M81" s="3">
         <v>1900</v>
       </c>
       <c r="N81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>KTHN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E8" s="3">
         <v>8000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,99 +1161,105 @@
         <v>7000</v>
       </c>
       <c r="E17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1500</v>
       </c>
       <c r="J17" s="3">
         <v>1500</v>
       </c>
       <c r="K17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>6800</v>
       </c>
       <c r="O18" s="3">
         <v>6800</v>
       </c>
       <c r="P18" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="Q18" s="3">
         <v>6700</v>
       </c>
       <c r="R18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="S18" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-4400</v>
       </c>
       <c r="Q20" s="3">
         <v>-4400</v>
       </c>
       <c r="R20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="S20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>3100</v>
       </c>
       <c r="K23" s="3">
         <v>3100</v>
       </c>
       <c r="L23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2700</v>
-      </c>
-      <c r="P23" s="3">
-        <v>2300</v>
       </c>
       <c r="Q23" s="3">
         <v>2300</v>
       </c>
       <c r="R23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1457,46 +1503,49 @@
         <v>400</v>
       </c>
       <c r="F24" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
       </c>
       <c r="H24" s="3">
+        <v>600</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>500</v>
       </c>
       <c r="P24" s="3">
         <v>500</v>
       </c>
       <c r="Q24" s="3">
+        <v>500</v>
+      </c>
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2500</v>
       </c>
       <c r="K26" s="3">
         <v>2500</v>
       </c>
       <c r="L26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1900</v>
       </c>
       <c r="R26" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2500</v>
       </c>
       <c r="K27" s="3">
         <v>2500</v>
       </c>
       <c r="L27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1700</v>
       </c>
       <c r="R27" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>4400</v>
       </c>
       <c r="Q32" s="3">
         <v>4400</v>
       </c>
       <c r="R32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2500</v>
       </c>
       <c r="K33" s="3">
         <v>2500</v>
       </c>
       <c r="L33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1700</v>
       </c>
       <c r="R33" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2500</v>
       </c>
       <c r="K35" s="3">
         <v>2500</v>
       </c>
       <c r="L35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>1700</v>
       </c>
       <c r="R35" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E41" s="3">
         <v>48800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>28400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>57000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>52300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>14400</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>14800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E48" s="3">
         <v>11700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>10200</v>
       </c>
       <c r="N48" s="3">
         <v>10200</v>
       </c>
       <c r="O48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="P48" s="3">
         <v>10300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10400</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>10600</v>
       </c>
       <c r="R48" s="3">
         <v>10600</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>5600</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>5600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>5600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>5600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>965600</v>
+      </c>
+      <c r="E54" s="3">
         <v>963000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>940500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>945500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>948000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>941400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>937000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>939200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>981800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>903700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>850900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>845200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>838200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>803100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>792400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,58 +3114,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>13800</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>17400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>8400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>8600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3089,49 +3232,52 @@
         <v>1500</v>
       </c>
       <c r="E61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F61" s="3">
         <v>21400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>60500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>56900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>66400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>888500</v>
+      </c>
+      <c r="E66" s="3">
         <v>882600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>856900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>863100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>868000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>862600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>860800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>866200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>910800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>835200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>782000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>778100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>762500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>727200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>732100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>723900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3539,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>10000</v>
@@ -3548,10 +3716,13 @@
         <v>10000</v>
       </c>
       <c r="R70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="S70" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E72" s="3">
         <v>84700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>75800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>81800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>79600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>77800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>68000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>72900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>70600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>68600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>60000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>66700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>65400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>63900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>53900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E76" s="3">
         <v>80400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>83600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>82300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>80000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>78800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>76200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>73000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>70900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>68500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>68900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>67100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>65600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>62900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>61100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2500</v>
       </c>
       <c r="K81" s="3">
         <v>2500</v>
       </c>
       <c r="L81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>1700</v>
       </c>
       <c r="R81" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>KTHN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E8" s="3">
         <v>8400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="E17" s="3">
         <v>7000</v>
       </c>
       <c r="F17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1500</v>
       </c>
       <c r="K17" s="3">
         <v>1500</v>
       </c>
       <c r="L17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>6800</v>
       </c>
       <c r="P18" s="3">
         <v>6800</v>
       </c>
       <c r="Q18" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="R18" s="3">
         <v>6700</v>
       </c>
       <c r="S18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="T18" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-4400</v>
       </c>
       <c r="R20" s="3">
         <v>-4400</v>
       </c>
       <c r="S20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="T20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,66 +1478,72 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>3100</v>
       </c>
       <c r="L23" s="3">
         <v>3100</v>
       </c>
       <c r="M23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>2300</v>
       </c>
       <c r="R23" s="3">
         <v>2300</v>
       </c>
       <c r="S23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T23" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
         <v>400</v>
@@ -1506,46 +1552,49 @@
         <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>600</v>
       </c>
       <c r="I24" s="3">
+        <v>600</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>500</v>
       </c>
       <c r="Q24" s="3">
         <v>500</v>
       </c>
       <c r="R24" s="3">
+        <v>500</v>
+      </c>
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>2500</v>
       </c>
       <c r="L26" s="3">
         <v>2500</v>
       </c>
       <c r="M26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1900</v>
       </c>
       <c r="S26" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>2500</v>
       </c>
       <c r="L27" s="3">
         <v>2500</v>
       </c>
       <c r="M27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1700</v>
       </c>
       <c r="S27" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>4400</v>
       </c>
       <c r="R32" s="3">
         <v>4400</v>
       </c>
       <c r="S32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="T32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>2500</v>
       </c>
       <c r="L33" s="3">
         <v>2500</v>
       </c>
       <c r="M33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1700</v>
       </c>
       <c r="S33" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>2500</v>
       </c>
       <c r="L35" s="3">
         <v>2500</v>
       </c>
       <c r="M35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1700</v>
       </c>
       <c r="S35" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E41" s="3">
         <v>31800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>28400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,50 +2381,53 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>57000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>52300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>14400</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>14800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E48" s="3">
         <v>16300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>10200</v>
       </c>
       <c r="O48" s="3">
         <v>10200</v>
       </c>
       <c r="P48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>10300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10400</v>
-      </c>
-      <c r="R48" s="3">
-        <v>10600</v>
       </c>
       <c r="S48" s="3">
         <v>10600</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2662,50 +2773,53 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>5600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>5600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>5600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>5600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>966900</v>
+      </c>
+      <c r="E54" s="3">
         <v>965600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>963000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>940500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>945500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>948000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>941400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>937000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>939200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>981800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>903700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>850900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>845200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>838200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>800100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>803100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>792400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3128,50 +3265,53 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>13800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>17400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>8400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>8600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3235,49 +3378,52 @@
         <v>1500</v>
       </c>
       <c r="F61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G61" s="3">
         <v>21400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>60500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>56900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>66400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>890500</v>
+      </c>
+      <c r="E66" s="3">
         <v>888500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>882600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>856900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>863100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>868000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>862600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>860800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>866200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>910800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>835200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>782000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>778100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>762500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>727200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>732100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>723900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>10000</v>
@@ -3719,10 +3887,13 @@
         <v>10000</v>
       </c>
       <c r="S70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T70" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E72" s="3">
         <v>85400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>84700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>75800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>81800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>79600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>77800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>68000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>72900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>70600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>68600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>60000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>66700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>65400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>63900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>53900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E76" s="3">
         <v>77200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>80400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>83600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>82300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>80000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>78800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>76200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>70900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>68500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>68900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>67100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>65600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>62900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>61100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>2500</v>
       </c>
       <c r="L81" s="3">
         <v>2500</v>
       </c>
       <c r="M81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
-      </c>
-      <c r="R81" s="3">
-        <v>1700</v>
       </c>
       <c r="S81" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>KTHN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,158 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F8" s="3">
         <v>9500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>8400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>8000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>8600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>8900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>8700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>9200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>8700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>8600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7400</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L17" s="3">
         <v>7000</v>
       </c>
-      <c r="F17" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2600</v>
       </c>
       <c r="Q17" s="3">
         <v>2400</v>
       </c>
       <c r="R17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2100</v>
+        <v>8600</v>
       </c>
       <c r="E18" s="3">
-        <v>1400</v>
+        <v>9200</v>
       </c>
       <c r="F18" s="3">
-        <v>1000</v>
+        <v>8400</v>
       </c>
       <c r="G18" s="3">
         <v>7600</v>
       </c>
       <c r="H18" s="3">
-        <v>2000</v>
+        <v>7200</v>
       </c>
       <c r="I18" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>7200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>6200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>6700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>6800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>6800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>6700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1378,72 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-4400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-4400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1560,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>700</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
-      </c>
-      <c r="E24" s="3">
-        <v>400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
       </c>
       <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>400</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
-      </c>
-      <c r="R24" s="3">
-        <v>500</v>
-      </c>
-      <c r="S24" s="3">
-        <v>400</v>
       </c>
       <c r="T24" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>400</v>
+      </c>
+      <c r="V24" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F26" s="3">
         <v>2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F27" s="3">
         <v>2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1900</v>
-      </c>
-      <c r="P27" s="3">
-        <v>2300</v>
       </c>
       <c r="Q27" s="3">
         <v>1900</v>
       </c>
       <c r="R27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T27" s="3">
         <v>1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>4400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>4400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F33" s="3">
         <v>2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1900</v>
-      </c>
-      <c r="P33" s="3">
-        <v>2300</v>
       </c>
       <c r="Q33" s="3">
         <v>1900</v>
       </c>
       <c r="R33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T33" s="3">
         <v>1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F35" s="3">
         <v>2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1900</v>
-      </c>
-      <c r="P35" s="3">
-        <v>2300</v>
       </c>
       <c r="Q35" s="3">
         <v>1900</v>
       </c>
       <c r="R35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T35" s="3">
         <v>1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2485,134 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F41" s="3">
         <v>34000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>31800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>48800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>52500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>30300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>25100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>28400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>29800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>29400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>22100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>13800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>12100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
+      <c r="E42" s="3">
+        <v>24300</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>57000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>52300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>14400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>14800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2791,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2915,138 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E48" s="3">
         <v>17200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>17200</v>
+      </c>
+      <c r="G48" s="3">
         <v>16300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>11700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>11400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>11500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>11600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>11800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>10000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>10200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>10300</v>
       </c>
       <c r="O48" s="3">
         <v>10200</v>
       </c>
       <c r="P48" s="3">
+        <v>10300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>10200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="S48" s="3">
         <v>10300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>10400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>10600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>5600</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>5600</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>5600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>5600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>5600</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>982100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>983500</v>
+      </c>
+      <c r="F54" s="3">
         <v>966900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>965600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>963000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>940500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>945500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>948000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>941400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>937000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>939200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>981800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>903700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>850900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>845200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>838200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>800100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>803100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>792400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3459,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,64 +3521,76 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+      <c r="E59" s="3">
+        <v>23300</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>13800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>17400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>8400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>8600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3645,14 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,55 +3660,61 @@
         <v>1500</v>
       </c>
       <c r="E61" s="3">
-        <v>1500</v>
+        <v>21500</v>
       </c>
       <c r="F61" s="3">
         <v>1500</v>
       </c>
       <c r="G61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I61" s="3">
         <v>21400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>8500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>11000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>21300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>16000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>26000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>60500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>21200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>38400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>56900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>66400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>7200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>899700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>903900</v>
+      </c>
+      <c r="F66" s="3">
         <v>890500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>888500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>882600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>856900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>863100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>868000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>862600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>860800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>866200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>910800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>835200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>782000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>778100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>762500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>727200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>732100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>723900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3881,19 +4216,25 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>10000</v>
       </c>
       <c r="T70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="U70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="V70" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>83700</v>
+      </c>
+      <c r="F72" s="3">
         <v>87900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>85400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>84700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>75800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>81800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>79600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>77800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>68000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>72900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>70600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>68600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>60000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>66700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>65400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>63900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>53900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>79700</v>
+      </c>
+      <c r="F76" s="3">
         <v>76300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>77200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>80400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>83600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>82300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>80000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>78800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>76200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>73000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>70900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>68500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>68900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>67100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>65600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>62900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>61100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F81" s="3">
         <v>2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>1900</v>
-      </c>
-      <c r="P81" s="3">
-        <v>2300</v>
       </c>
       <c r="Q81" s="3">
         <v>1900</v>
       </c>
       <c r="R81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T81" s="3">
         <v>1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>KTHN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E8" s="3">
         <v>10600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1500</v>
       </c>
       <c r="N17" s="3">
         <v>1500</v>
       </c>
       <c r="O17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>8600</v>
       </c>
       <c r="E18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F18" s="3">
         <v>9200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>6800</v>
       </c>
       <c r="S18" s="3">
         <v>6800</v>
       </c>
       <c r="T18" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="U18" s="3">
         <v>6700</v>
       </c>
       <c r="V18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="W18" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-5300</v>
       </c>
       <c r="F20" s="3">
         <v>-5300</v>
       </c>
       <c r="G20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-4400</v>
       </c>
       <c r="U20" s="3">
         <v>-4400</v>
       </c>
       <c r="V20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="W20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>3100</v>
       </c>
       <c r="O23" s="3">
         <v>3100</v>
       </c>
       <c r="P23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2700</v>
-      </c>
-      <c r="T23" s="3">
-        <v>2300</v>
       </c>
       <c r="U23" s="3">
         <v>2300</v>
       </c>
       <c r="V23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W23" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,13 +1683,13 @@
         <v>500</v>
       </c>
       <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>400</v>
@@ -1652,46 +1698,49 @@
         <v>400</v>
       </c>
       <c r="J24" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K24" s="3">
         <v>600</v>
       </c>
       <c r="L24" s="3">
+        <v>600</v>
+      </c>
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>500</v>
       </c>
       <c r="T24" s="3">
         <v>500</v>
       </c>
       <c r="U24" s="3">
+        <v>500</v>
+      </c>
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,61 +1813,64 @@
         <v>2500</v>
       </c>
       <c r="E26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F26" s="3">
         <v>3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>2500</v>
       </c>
       <c r="O26" s="3">
         <v>2500</v>
       </c>
       <c r="P26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1800</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1900</v>
       </c>
       <c r="V26" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,61 +1878,64 @@
         <v>2500</v>
       </c>
       <c r="E27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F27" s="3">
         <v>3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>2500</v>
       </c>
       <c r="O27" s="3">
         <v>2500</v>
       </c>
       <c r="P27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1600</v>
-      </c>
-      <c r="U27" s="3">
-        <v>1700</v>
       </c>
       <c r="V27" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,70 +2191,76 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E32" s="3">
         <v>5500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>5300</v>
       </c>
       <c r="F32" s="3">
         <v>5300</v>
       </c>
       <c r="G32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H32" s="3">
         <v>5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>4400</v>
       </c>
       <c r="U32" s="3">
         <v>4400</v>
       </c>
       <c r="V32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="W32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,61 +2268,64 @@
         <v>2500</v>
       </c>
       <c r="E33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F33" s="3">
         <v>3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>2500</v>
       </c>
       <c r="O33" s="3">
         <v>2500</v>
       </c>
       <c r="P33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1600</v>
-      </c>
-      <c r="U33" s="3">
-        <v>1700</v>
       </c>
       <c r="V33" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,128 +2398,134 @@
         <v>2500</v>
       </c>
       <c r="E35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F35" s="3">
         <v>3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>2500</v>
       </c>
       <c r="O35" s="3">
         <v>2500</v>
       </c>
       <c r="P35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1600</v>
-      </c>
-      <c r="U35" s="3">
-        <v>1700</v>
       </c>
       <c r="V35" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2573,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E41" s="3">
         <v>22900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>24300</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>57000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>52300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>14400</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>14800</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E48" s="3">
         <v>17100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>17200</v>
       </c>
       <c r="F48" s="3">
         <v>17200</v>
       </c>
       <c r="G48" s="3">
+        <v>17200</v>
+      </c>
+      <c r="H48" s="3">
         <v>16300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>10200</v>
       </c>
       <c r="R48" s="3">
         <v>10200</v>
       </c>
       <c r="S48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="T48" s="3">
         <v>10300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10400</v>
-      </c>
-      <c r="U48" s="3">
-        <v>10600</v>
       </c>
       <c r="V48" s="3">
         <v>10600</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>5600</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>5600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>5600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>5600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>5600</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1002200</v>
+      </c>
+      <c r="E54" s="3">
         <v>982100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>983500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>966900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>965600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>963000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>940500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>945500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>948000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>941400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>937000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>939200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>981800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>903700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>850900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>845200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>838200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>800100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>803100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>792400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,70 +3661,76 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>23300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>13800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>17400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>8400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>8600</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,19 +3791,22 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1500</v>
       </c>
       <c r="G61" s="3">
         <v>1500</v>
@@ -3672,49 +3815,52 @@
         <v>1500</v>
       </c>
       <c r="I61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J61" s="3">
         <v>21400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>60500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>38400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>56900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>66400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>919500</v>
+      </c>
+      <c r="E66" s="3">
         <v>899700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>903900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>890500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>888500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>882600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>856900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>863100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>868000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>862600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>860800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>866200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>910800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>835200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>782000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>778100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>762500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>727200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>732100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>723900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4222,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>10000</v>
@@ -4231,10 +4399,13 @@
         <v>10000</v>
       </c>
       <c r="V70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="W70" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E72" s="3">
         <v>91500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>83700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>87900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>85400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>84700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>75800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>81800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>79600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>77800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>68000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>72900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>70600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>68600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>60000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>66700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>65400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>63900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>53900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E76" s="3">
         <v>82400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>79700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>76300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>77200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>80400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>83600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>82300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>80000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>78800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>76200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>73000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>70900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>68500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>68900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>67100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>65600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>62900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>61100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,61 +4938,64 @@
         <v>2500</v>
       </c>
       <c r="E81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F81" s="3">
         <v>3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>2500</v>
       </c>
       <c r="O81" s="3">
         <v>2500</v>
       </c>
       <c r="P81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1600</v>
-      </c>
-      <c r="U81" s="3">
-        <v>1700</v>
       </c>
       <c r="V81" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KTHN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>KTHN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1500</v>
       </c>
       <c r="O17" s="3">
         <v>1500</v>
       </c>
       <c r="P17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="E18" s="3">
         <v>8600</v>
       </c>
       <c r="F18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G18" s="3">
         <v>9200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>6800</v>
       </c>
       <c r="T18" s="3">
         <v>6800</v>
       </c>
       <c r="U18" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="V18" s="3">
         <v>6700</v>
       </c>
       <c r="W18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="X18" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-5300</v>
       </c>
       <c r="G20" s="3">
         <v>-5300</v>
       </c>
       <c r="H20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-4400</v>
       </c>
       <c r="V20" s="3">
         <v>-4400</v>
       </c>
       <c r="W20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="X20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>3100</v>
       </c>
       <c r="P23" s="3">
         <v>3100</v>
       </c>
       <c r="Q23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2700</v>
-      </c>
-      <c r="U23" s="3">
-        <v>2300</v>
       </c>
       <c r="V23" s="3">
         <v>2300</v>
       </c>
       <c r="W23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X23" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1686,13 +1732,13 @@
         <v>500</v>
       </c>
       <c r="F24" s="3">
+        <v>500</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
@@ -1701,46 +1747,49 @@
         <v>400</v>
       </c>
       <c r="K24" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L24" s="3">
         <v>600</v>
       </c>
       <c r="M24" s="3">
+        <v>600</v>
+      </c>
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
-      </c>
-      <c r="T24" s="3">
-        <v>500</v>
       </c>
       <c r="U24" s="3">
         <v>500</v>
       </c>
       <c r="V24" s="3">
+        <v>500</v>
+      </c>
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E26" s="3">
         <v>2500</v>
       </c>
       <c r="F26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G26" s="3">
         <v>3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>2500</v>
       </c>
       <c r="P26" s="3">
         <v>2500</v>
       </c>
       <c r="Q26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1800</v>
-      </c>
-      <c r="V26" s="3">
-        <v>1900</v>
       </c>
       <c r="W26" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E27" s="3">
         <v>2500</v>
       </c>
       <c r="F27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G27" s="3">
         <v>3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>2500</v>
       </c>
       <c r="P27" s="3">
         <v>2500</v>
       </c>
       <c r="Q27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1600</v>
-      </c>
-      <c r="V27" s="3">
-        <v>1700</v>
       </c>
       <c r="W27" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E32" s="3">
         <v>5600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5300</v>
       </c>
       <c r="G32" s="3">
         <v>5300</v>
       </c>
       <c r="H32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I32" s="3">
         <v>5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>4400</v>
       </c>
       <c r="V32" s="3">
         <v>4400</v>
       </c>
       <c r="W32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="X32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E33" s="3">
         <v>2500</v>
       </c>
       <c r="F33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G33" s="3">
         <v>3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>2500</v>
       </c>
       <c r="P33" s="3">
         <v>2500</v>
       </c>
       <c r="Q33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1600</v>
-      </c>
-      <c r="V33" s="3">
-        <v>1700</v>
       </c>
       <c r="W33" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E35" s="3">
         <v>2500</v>
       </c>
       <c r="F35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G35" s="3">
         <v>3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>2500</v>
       </c>
       <c r="P35" s="3">
         <v>2500</v>
       </c>
       <c r="Q35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1600</v>
-      </c>
-      <c r="V35" s="3">
-        <v>1700</v>
       </c>
       <c r="W35" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E41" s="3">
         <v>18700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2650,62 +2740,65 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>24300</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>57000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>52300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>14400</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>14800</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,73 +3134,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E48" s="3">
         <v>16900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>17200</v>
       </c>
       <c r="G48" s="3">
         <v>17200</v>
       </c>
       <c r="H48" s="3">
+        <v>17200</v>
+      </c>
+      <c r="I48" s="3">
         <v>16300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>10200</v>
       </c>
       <c r="S48" s="3">
         <v>10200</v>
       </c>
       <c r="T48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="U48" s="3">
         <v>10300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10400</v>
-      </c>
-      <c r="V48" s="3">
-        <v>10600</v>
       </c>
       <c r="W48" s="3">
         <v>10600</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3105,62 +3216,65 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>5600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>5600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>5600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>5600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>5600</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1017500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1002200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>982100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>983500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>966900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>965600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>963000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>940500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>945500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>948000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>941400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>937000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>939200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>981800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>903700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>850900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>845200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>838200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>800100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>803100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>792400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3675,62 +3812,65 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>23300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>13800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>17400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>8400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>8600</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,22 +3934,25 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1500</v>
       </c>
       <c r="H61" s="3">
         <v>1500</v>
@@ -3818,49 +3961,52 @@
         <v>1500</v>
       </c>
       <c r="J61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K61" s="3">
         <v>21400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>60500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>38400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>56900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>66400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>936300</v>
+      </c>
+      <c r="E66" s="3">
         <v>919500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>899700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>903900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>890500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>888500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>882600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>856900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>863100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>868000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>862600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>860800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>866200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>910800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>835200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>782000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>778100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>762500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>727200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>732100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>723900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4393,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>10000</v>
@@ -4402,10 +4570,13 @@
         <v>10000</v>
       </c>
       <c r="W70" s="3">
+        <v>10000</v>
+      </c>
+      <c r="X70" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E72" s="3">
         <v>93000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>91500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>83700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>87900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>85400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>84700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>75800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>81800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>79600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>77800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>68000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>72900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>70600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>68600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>60000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>66700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>65400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>63900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>53900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E76" s="3">
         <v>82700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>82400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>79700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>76300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>77200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>80400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>83600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>82300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>80000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>78800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>76200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>73000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>70900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>68500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>68900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>67100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>65600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>62900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>61100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E81" s="3">
         <v>2500</v>
       </c>
       <c r="F81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G81" s="3">
         <v>3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>2500</v>
       </c>
       <c r="P81" s="3">
         <v>2500</v>
       </c>
       <c r="Q81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1600</v>
-      </c>
-      <c r="V81" s="3">
-        <v>1700</v>
       </c>
       <c r="W81" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
